--- a/成果物/00_要件定義書/要件定義書_Dグループ.xlsx
+++ b/成果物/00_要件定義書/要件定義書_Dグループ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0F54F0-474C-479D-9144-80D2D7259B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCF27AC-5251-4B65-8FB6-B41DE76D586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="要件定義書" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1098,7 +1097,13 @@
       <t>ヘンコウマエ</t>
     </rPh>
     <rPh sb="53" eb="56">
-      <t>ヘンコウゴナイヨウヘンコウ</t>
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2125,7 +2130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4596,7 +4601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH144"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
